--- a/실무_엑셀_예제_파일/Chapter07/07-004.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-004.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534E8AF4-750E-4A83-AF91-63A88CC87114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45001BCD-00A5-47EA-8789-C0B288EA90F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="48" windowWidth="19344" windowHeight="13692" xr2:uid="{592EC77A-0075-42D3-95F4-FD81012EB69A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{592EC77A-0075-42D3-95F4-FD81012EB69A}"/>
   </bookViews>
   <sheets>
     <sheet name="헬로마트재고" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +170,14 @@
   </si>
   <si>
     <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,35 +627,35 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.4140625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="9.796875" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" customWidth="1"/>
+    <col min="5" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.9140625" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="str">
         <f ca="1">"용산 헬로마트 [" &amp; YEAR(TODAY()) &amp;"년 " &amp; MONTH(TODAY()) &amp; "월] 재고현황"</f>
-        <v>용산 헬로마트 [2021년 8월] 재고현황</v>
+        <v>용산 헬로마트 [2025년 4월] 재고현황</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -699,12 +698,18 @@
         <v>1482300</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>IFERROR(VLOOKUP(H5,$B$5:$F$19,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>IFERROR(VLOOKUP(H5,$B$5:$F$19,4,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -723,10 +728,16 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I6" s="3" t="str">
+        <f t="shared" ref="I6:I9" si="0">IFERROR(VLOOKUP(H6,$B$5:$F$19,2,0),"-")</f>
+        <v>알칼리 냉정수기</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J9" si="1">IFERROR(VLOOKUP(H6,$B$5:$F$19,4,0),"-")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -743,12 +754,18 @@
         <v>1620000</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -767,10 +784,16 @@
       <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>키친 코코 멀티포트</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -789,10 +812,16 @@
       <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>생활가전 전기국통</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -809,7 +838,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -826,7 +855,7 @@
         <v>1317600</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -843,7 +872,7 @@
         <v>4590000</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -860,7 +889,7 @@
         <v>747600</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -877,7 +906,7 @@
         <v>3423600</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -894,7 +923,7 @@
         <v>4758000</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -911,7 +940,7 @@
         <v>7836000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
@@ -928,7 +957,7 @@
         <v>2860000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
@@ -945,7 +974,7 @@
         <v>2776500</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
